--- a/sources/planned-IC-2030.xlsx
+++ b/sources/planned-IC-2030.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\studium\master\master-thesis\data\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\studium\master\master-thesis\RPGV\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A637E9-2943-4DA6-8BC0-A3A6001FC88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FE8D23-3472-43E6-BBEA-58891AB32A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B4AD40C-DC18-403D-9FDF-83947ADC813E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B4AD40C-DC18-403D-9FDF-83947ADC813E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="planed IC EU CH GB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>DE</t>
   </si>
@@ -227,24 +218,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,10 +253,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -596,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0C4ADC-7AC4-44C9-98F8-1C5DE373C8CE}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +580,7 @@
     <col min="2" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="82.28515625" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" customWidth="1"/>
     <col min="15" max="15" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,7 +660,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <f>M3*O2</f>
         <v>8.8395671466702935E-3</v>
       </c>
@@ -697,7 +672,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <f>M4*O2</f>
         <v>5.8930447644468618E-3</v>
       </c>
@@ -720,7 +695,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <f>M6*O2</f>
         <v>0.46260401400907869</v>
       </c>
@@ -983,7 +958,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>0.7</v>
       </c>
       <c r="M15">
@@ -1003,7 +978,7 @@
       <c r="J16" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>44</v>
       </c>
       <c r="M16">
@@ -1135,7 +1110,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <f>M22*O2</f>
         <v>2.0625656675564017E-2</v>
       </c>
@@ -1147,7 +1122,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <f>M23*O2</f>
         <v>8.8395671466702935E-3</v>
       </c>
@@ -1173,7 +1148,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
@@ -1198,7 +1173,7 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <f>M27*O2</f>
         <v>1.1786089528893724E-2</v>
       </c>
@@ -1210,7 +1185,7 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <f>M28*O2</f>
         <v>8.8395671466702935E-3</v>
       </c>
@@ -1239,7 +1214,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30">
         <f>M30*O2</f>
         <v>7.6609581937809201E-2</v>
       </c>
@@ -1251,7 +1226,7 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31">
         <f>M31*O2</f>
         <v>0.26518701440010878</v>
       </c>
@@ -1397,7 +1372,7 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>4.4000000000000004</v>
       </c>
       <c r="M40">
@@ -1411,7 +1386,7 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41">
         <f>M41*O2</f>
         <v>39.477506877029526</v>
       </c>
@@ -1446,733 +1421,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06916E47-8E44-4693-940E-A9AC67810B56}">
-  <dimension ref="A1:Q33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="82.28515625" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1">
-        <v>2024</v>
-      </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1">
-        <v>2030</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f>SUM(L3:L32)</f>
-        <v>386.10050687702949</v>
-      </c>
-      <c r="M2">
-        <v>138.26599999999999</v>
-      </c>
-      <c r="O2">
-        <f>SUM(L3,L4:L18,L19:L21,L22,L23:L31)/SUM(M3,M4:M18,M19:M21,M22,M23:M31)</f>
-        <v>2.946522382223431</v>
-      </c>
-      <c r="P2">
-        <v>891</v>
-      </c>
-      <c r="Q2">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>2.5</v>
-      </c>
-      <c r="M3">
-        <v>1.5780000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>4.5309999999999997</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <f>M5*2.5</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.042</v>
-      </c>
-      <c r="C6">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="D6">
-        <v>1.339</v>
-      </c>
-      <c r="E6">
-        <v>1.488</v>
-      </c>
-      <c r="F6">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="G6">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="H6">
-        <v>2.0710000000000002</v>
-      </c>
-      <c r="I6">
-        <v>2.3570000000000002</v>
-      </c>
-      <c r="J6">
-        <v>2.6429999999999998</v>
-      </c>
-      <c r="K6">
-        <v>2.93</v>
-      </c>
-      <c r="L6">
-        <v>3.2160000000000002</v>
-      </c>
-      <c r="M6">
-        <v>1.0649999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.215</v>
-      </c>
-      <c r="F7">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.316</v>
-      </c>
-      <c r="H7">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="K7">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="L7">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="M7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="C8">
-        <v>2.153</v>
-      </c>
-      <c r="D8">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="E8">
-        <v>2.34</v>
-      </c>
-      <c r="F8">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="G8">
-        <v>2.6280000000000001</v>
-      </c>
-      <c r="H8">
-        <v>2.8220000000000001</v>
-      </c>
-      <c r="I8">
-        <v>3.0510000000000002</v>
-      </c>
-      <c r="J8">
-        <v>3.319</v>
-      </c>
-      <c r="K8">
-        <v>3.625</v>
-      </c>
-      <c r="L8">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="M8">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="C9">
-        <v>2.153</v>
-      </c>
-      <c r="D9">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="E9">
-        <v>2.34</v>
-      </c>
-      <c r="F9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="G9">
-        <v>2.6280000000000001</v>
-      </c>
-      <c r="H9">
-        <v>2.8220000000000001</v>
-      </c>
-      <c r="I9">
-        <v>3.0510000000000002</v>
-      </c>
-      <c r="J9">
-        <v>3.319</v>
-      </c>
-      <c r="K9">
-        <v>3.625</v>
-      </c>
-      <c r="L9">
-        <v>3.9750000000000001</v>
-      </c>
-      <c r="M9">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="D10">
-        <v>2.6709999999999998</v>
-      </c>
-      <c r="E10">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="F10">
-        <v>3.5219999999999998</v>
-      </c>
-      <c r="G10">
-        <v>3.9020000000000001</v>
-      </c>
-      <c r="H10">
-        <v>4.2370000000000001</v>
-      </c>
-      <c r="I10">
-        <v>4.5759999999999996</v>
-      </c>
-      <c r="J10">
-        <v>4.923</v>
-      </c>
-      <c r="K10">
-        <v>6.492</v>
-      </c>
-      <c r="L10">
-        <v>7.8419999999999996</v>
-      </c>
-      <c r="M10">
-        <v>1.079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>0.16</v>
-      </c>
-      <c r="G11">
-        <v>0.26</v>
-      </c>
-      <c r="I11">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="M11">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="M12">
-        <v>0.215</v>
-      </c>
-      <c r="N12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="1">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>10.561999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>98</v>
-      </c>
-      <c r="M14">
-        <v>48.96</v>
-      </c>
-      <c r="N14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>7.7</v>
-      </c>
-      <c r="M15">
-        <v>2.7629999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>1.17</v>
-      </c>
-      <c r="C16">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="D16">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="E16">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="F16">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="G16">
-        <v>3.7770000000000001</v>
-      </c>
-      <c r="H16">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="I16">
-        <v>4.8449999999999998</v>
-      </c>
-      <c r="J16">
-        <v>5.38</v>
-      </c>
-      <c r="K16">
-        <v>5.915</v>
-      </c>
-      <c r="L16">
-        <v>6.4539999999999997</v>
-      </c>
-      <c r="M16">
-        <v>1.2769999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>0.124</v>
-      </c>
-      <c r="D17">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E17">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="F17">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="G17">
-        <v>0.3</v>
-      </c>
-      <c r="H17">
-        <v>0.49</v>
-      </c>
-      <c r="I17">
-        <v>0.68</v>
-      </c>
-      <c r="J17">
-        <v>0.87</v>
-      </c>
-      <c r="K17">
-        <v>1.06</v>
-      </c>
-      <c r="L17">
-        <v>1.25</v>
-      </c>
-      <c r="M17">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18">
-        <v>28.2</v>
-      </c>
-      <c r="L18">
-        <v>51.2</v>
-      </c>
-      <c r="M18">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="M19">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.15</v>
-      </c>
-      <c r="N20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="M21">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="L22">
-        <v>27</v>
-      </c>
-      <c r="M22">
-        <v>6.7249999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23">
-        <v>7.3</v>
-      </c>
-      <c r="M23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24">
-        <v>6.4</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25">
-        <v>3.4</v>
-      </c>
-      <c r="L25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M25">
-        <v>1.3859999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26">
-        <f>M26*2.5</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27">
-        <v>1.2</v>
-      </c>
-      <c r="M27">
-        <v>0.47199999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>0.4</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-      <c r="D28">
-        <v>0.6</v>
-      </c>
-      <c r="E28">
-        <v>0.7</v>
-      </c>
-      <c r="F28">
-        <v>0.8</v>
-      </c>
-      <c r="G28">
-        <v>0.9</v>
-      </c>
-      <c r="H28">
-        <v>1.05</v>
-      </c>
-      <c r="I28">
-        <v>1.2</v>
-      </c>
-      <c r="J28">
-        <v>1.35</v>
-      </c>
-      <c r="K28">
-        <v>1.5</v>
-      </c>
-      <c r="L28">
-        <v>1.65</v>
-      </c>
-      <c r="M28">
-        <v>0.222</v>
-      </c>
-      <c r="N28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29">
-        <v>21.7</v>
-      </c>
-      <c r="L29">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="M29">
-        <v>8.7609999999999992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30">
-        <v>2.65</v>
-      </c>
-      <c r="M30">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="N30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M31">
-        <v>2.524</v>
-      </c>
-      <c r="N31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="2">
-        <f>M32*O2</f>
-        <v>39.477506877029526</v>
-      </c>
-      <c r="M32">
-        <v>13.398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33">
-        <v>129.89099999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>